--- a/(development)/IT/IT Projects Tickets/VeuilleTechnologiqueAngular15/VeuilleTechnologiqueAngular15.xlsx
+++ b/(development)/IT/IT Projects Tickets/VeuilleTechnologiqueAngular15/VeuilleTechnologiqueAngular15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\louis.bodal\OneDrive - Expaceo SAS\Documents\linkedin-skill-assessments-quizzes\(development)\IT\IT Projects Tickets\VeuilleTechnologiqueAngular15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281CEEEB-E722-409B-A698-6348BB6E0F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1999F-ABF2-4609-B599-51F4E41302A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={FF02DD80-0D87-4312-8719-E2E4411E6CE5}</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FF02DD80-0D87-4312-8719-E2E4411E6CE5}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://github.com/RicoSuter/NSwag/wiki</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
@@ -34,13 +52,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,6 +104,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Louis BODAL" id="{5B19A867-5C8C-4DA1-A544-7B250398009F}" userId="S::louis.bodal@expaceo.com::52f5b6e6-ca63-4218-aea5-0883547e4bf2" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,12 +373,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="A1" dT="2023-02-13T16:58:05.30" personId="{5B19A867-5C8C-4DA1-A544-7B250398009F}" id="{FF02DD80-0D87-4312-8719-E2E4411E6CE5}">
+    <text>https://github.com/RicoSuter/NSwag/wiki</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>100931237</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="39" url="https://github.com/RicoSuter/NSwag/wiki"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -360,5 +404,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>